--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efnb2-Pecam1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H2">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I2">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J2">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N2">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O2">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P2">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q2">
-        <v>15792.25516494168</v>
+        <v>17067.87730070608</v>
       </c>
       <c r="R2">
-        <v>142130.2964844751</v>
+        <v>153610.8957063547</v>
       </c>
       <c r="S2">
-        <v>0.6688781587269128</v>
+        <v>0.6697303606834122</v>
       </c>
       <c r="T2">
-        <v>0.6688781587269126</v>
+        <v>0.6697303606834121</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H3">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I3">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J3">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.893533</v>
       </c>
       <c r="O3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q3">
-        <v>219.444223130588</v>
+        <v>213.8877580521434</v>
       </c>
       <c r="R3">
-        <v>1974.998008175292</v>
+        <v>1924.989822469291</v>
       </c>
       <c r="S3">
-        <v>0.009294521040712147</v>
+        <v>0.008392790903184103</v>
       </c>
       <c r="T3">
-        <v>0.009294521040712145</v>
+        <v>0.008392790903184103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H4">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I4">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J4">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N4">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O4">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P4">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q4">
-        <v>76.33067945565999</v>
+        <v>292.7823004873108</v>
       </c>
       <c r="R4">
-        <v>686.97611510094</v>
+        <v>2635.040704385798</v>
       </c>
       <c r="S4">
-        <v>0.003232972352297006</v>
+        <v>0.01148855198876863</v>
       </c>
       <c r="T4">
-        <v>0.003232972352297005</v>
+        <v>0.01148855198876863</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H5">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I5">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J5">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N5">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q5">
-        <v>45.83438951911599</v>
+        <v>51.51441803827155</v>
       </c>
       <c r="R5">
-        <v>412.509505672044</v>
+        <v>463.629762344444</v>
       </c>
       <c r="S5">
-        <v>0.001941307416054003</v>
+        <v>0.002021386090685127</v>
       </c>
       <c r="T5">
-        <v>0.001941307416054003</v>
+        <v>0.002021386090685127</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>38.969508</v>
+        <v>37.98277566666666</v>
       </c>
       <c r="H6">
-        <v>116.908524</v>
+        <v>113.948327</v>
       </c>
       <c r="I6">
-        <v>0.688733638790647</v>
+        <v>0.697850645410475</v>
       </c>
       <c r="J6">
-        <v>0.6887336387906469</v>
+        <v>0.6978506454104751</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N6">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O6">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P6">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q6">
-        <v>127.179834132084</v>
+        <v>158.4525426738298</v>
       </c>
       <c r="R6">
-        <v>1144.618507188756</v>
+        <v>1426.072884064468</v>
       </c>
       <c r="S6">
-        <v>0.005386679254671014</v>
+        <v>0.006217555744425095</v>
       </c>
       <c r="T6">
-        <v>0.005386679254671012</v>
+        <v>0.006217555744425095</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>29.057191</v>
       </c>
       <c r="I7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J7">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N7">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O7">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P7">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q7">
-        <v>3925.107930097954</v>
+        <v>4352.363775303003</v>
       </c>
       <c r="R7">
-        <v>35325.97137088158</v>
+        <v>39171.27397772703</v>
       </c>
       <c r="S7">
-        <v>0.166247248266142</v>
+        <v>0.1707834026284283</v>
       </c>
       <c r="T7">
-        <v>0.166247248266142</v>
+        <v>0.1707834026284283</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>29.057191</v>
       </c>
       <c r="I8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J8">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>16.893533</v>
       </c>
       <c r="O8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q8">
         <v>54.54206833842256</v>
@@ -948,10 +948,10 @@
         <v>490.8786150458031</v>
       </c>
       <c r="S8">
-        <v>0.002310119603712486</v>
+        <v>0.002140188756758869</v>
       </c>
       <c r="T8">
-        <v>0.002310119603712486</v>
+        <v>0.002140188756758869</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>29.057191</v>
       </c>
       <c r="I9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J9">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N9">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O9">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P9">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q9">
-        <v>18.97171443292611</v>
+        <v>74.6604311854371</v>
       </c>
       <c r="R9">
-        <v>170.745429896335</v>
+        <v>671.9438806689341</v>
       </c>
       <c r="S9">
-        <v>0.0008035435905290654</v>
+        <v>0.002929617820988983</v>
       </c>
       <c r="T9">
-        <v>0.0008035435905290651</v>
+        <v>0.002929617820988983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>29.057191</v>
       </c>
       <c r="I10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J10">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N10">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q10">
-        <v>11.39197181743011</v>
+        <v>13.13634279327245</v>
       </c>
       <c r="R10">
-        <v>102.527746356871</v>
+        <v>118.227085139452</v>
       </c>
       <c r="S10">
-        <v>0.0004825049401701252</v>
+        <v>0.0005154599744301737</v>
       </c>
       <c r="T10">
-        <v>0.000482504940170125</v>
+        <v>0.0005154599744301736</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>29.057191</v>
       </c>
       <c r="I11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542351</v>
       </c>
       <c r="J11">
-        <v>0.1711822560557247</v>
+        <v>0.1779541659542352</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N11">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O11">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P11">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q11">
-        <v>31.61008800114766</v>
+        <v>40.40590957433823</v>
       </c>
       <c r="R11">
-        <v>284.490792010329</v>
+        <v>363.6531861690441</v>
       </c>
       <c r="S11">
-        <v>0.001338839655171023</v>
+        <v>0.001585496773628868</v>
       </c>
       <c r="T11">
-        <v>0.001338839655171023</v>
+        <v>0.001585496773628868</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H12">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J12">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N12">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O12">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P12">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q12">
-        <v>245.8886928911333</v>
+        <v>255.083358591703</v>
       </c>
       <c r="R12">
-        <v>2212.9982360202</v>
+        <v>2295.750227325328</v>
       </c>
       <c r="S12">
-        <v>0.01041457185405071</v>
+        <v>0.01000927454211837</v>
       </c>
       <c r="T12">
-        <v>0.01041457185405071</v>
+        <v>0.01000927454211837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H13">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J13">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>16.893533</v>
       </c>
       <c r="O13">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P13">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q13">
-        <v>3.416792131618889</v>
+        <v>3.196601822496889</v>
       </c>
       <c r="R13">
-        <v>30.75112918457</v>
+        <v>28.769416402472</v>
       </c>
       <c r="S13">
-        <v>0.0001447176230297623</v>
+        <v>0.0001254321936948497</v>
       </c>
       <c r="T13">
-        <v>0.0001447176230297622</v>
+        <v>0.0001254321936948497</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H14">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J14">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N14">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O14">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P14">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q14">
-        <v>1.188484532627778</v>
+        <v>4.375698936001776</v>
       </c>
       <c r="R14">
-        <v>10.69636079365</v>
+        <v>39.38129042401599</v>
       </c>
       <c r="S14">
-        <v>5.03380509975707E-05</v>
+        <v>0.0001716990563629878</v>
       </c>
       <c r="T14">
-        <v>5.033805099757068E-05</v>
+        <v>0.0001716990563629877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H15">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J15">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N15">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O15">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P15">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q15">
-        <v>0.7136509643877778</v>
+        <v>0.769894846183111</v>
       </c>
       <c r="R15">
-        <v>6.422858679489999</v>
+        <v>6.929053615648</v>
       </c>
       <c r="S15">
-        <v>3.022655966787283E-05</v>
+        <v>3.021008084005762E-05</v>
       </c>
       <c r="T15">
-        <v>3.022655966787281E-05</v>
+        <v>3.021008084005762E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6067633333333333</v>
+        <v>0.5676613333333332</v>
       </c>
       <c r="H16">
-        <v>1.82029</v>
+        <v>1.702984</v>
       </c>
       <c r="I16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="J16">
-        <v>0.01072372580252768</v>
+        <v>0.01042953867610283</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N16">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O16">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P16">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q16">
-        <v>1.980216432056666</v>
+        <v>2.368109756739555</v>
       </c>
       <c r="R16">
-        <v>17.82194788851</v>
+        <v>21.312987810656</v>
       </c>
       <c r="S16">
-        <v>8.387171478176477E-05</v>
+        <v>9.292280308656067E-05</v>
       </c>
       <c r="T16">
-        <v>8.387171478176474E-05</v>
+        <v>9.292280308656067E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H17">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I17">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J17">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N17">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O17">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P17">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q17">
-        <v>2772.14554938086</v>
+        <v>2616.656495351112</v>
       </c>
       <c r="R17">
-        <v>24949.30994442774</v>
+        <v>23549.90845816001</v>
       </c>
       <c r="S17">
-        <v>0.1174137316948376</v>
+        <v>0.1026755856947482</v>
       </c>
       <c r="T17">
-        <v>0.1174137316948376</v>
+        <v>0.1026755856947481</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H18">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I18">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J18">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>16.893533</v>
       </c>
       <c r="O18">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P18">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q18">
-        <v>38.52086482488434</v>
+        <v>32.79088439193756</v>
       </c>
       <c r="R18">
-        <v>346.687783423959</v>
+        <v>295.117959527438</v>
       </c>
       <c r="S18">
-        <v>0.001631544378401138</v>
+        <v>0.001286689050080757</v>
       </c>
       <c r="T18">
-        <v>0.001631544378401138</v>
+        <v>0.001286689050080757</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H19">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I19">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J19">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N19">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O19">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P19">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q19">
-        <v>13.39895734486167</v>
+        <v>44.88611529110711</v>
       </c>
       <c r="R19">
-        <v>120.590616103755</v>
+        <v>403.975037619964</v>
       </c>
       <c r="S19">
-        <v>0.0005675104552253867</v>
+        <v>0.001761296595584664</v>
       </c>
       <c r="T19">
-        <v>0.0005675104552253865</v>
+        <v>0.001761296595584664</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H20">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I20">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J20">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N20">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O20">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P20">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q20">
-        <v>8.045690598773668</v>
+        <v>7.897615748532446</v>
       </c>
       <c r="R20">
-        <v>72.411215388963</v>
+        <v>71.078541736792</v>
       </c>
       <c r="S20">
-        <v>0.0003407737943179338</v>
+        <v>0.0003098963597297961</v>
       </c>
       <c r="T20">
-        <v>0.0003407737943179336</v>
+        <v>0.000309896359729796</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>6.840641000000001</v>
+        <v>5.823095333333334</v>
       </c>
       <c r="H21">
-        <v>20.521923</v>
+        <v>17.469286</v>
       </c>
       <c r="I21">
-        <v>0.1208991288160603</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="J21">
-        <v>0.1208991288160602</v>
+        <v>0.1069866739681064</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N21">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O21">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P21">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q21">
-        <v>22.324931270293</v>
+        <v>24.29217574555823</v>
       </c>
       <c r="R21">
-        <v>200.924381432637</v>
+        <v>218.629581710024</v>
       </c>
       <c r="S21">
-        <v>0.0009455684932781801</v>
+        <v>0.0009532062679630647</v>
       </c>
       <c r="T21">
-        <v>0.0009455684932781796</v>
+        <v>0.0009532062679630646</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H22">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J22">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N22">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O22">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P22">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q22">
-        <v>194.0114725606933</v>
+        <v>165.7987009127695</v>
       </c>
       <c r="R22">
-        <v>1746.10325304624</v>
+        <v>1492.188308214926</v>
       </c>
       <c r="S22">
-        <v>0.0082173214137509</v>
+        <v>0.006505813336176064</v>
       </c>
       <c r="T22">
-        <v>0.008217321413750898</v>
+        <v>0.006505813336176063</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H23">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J23">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>16.893533</v>
       </c>
       <c r="O23">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P23">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q23">
-        <v>2.695922553798222</v>
+        <v>2.077722484255444</v>
       </c>
       <c r="R23">
-        <v>24.263302984184</v>
+        <v>18.699502358299</v>
       </c>
       <c r="S23">
-        <v>0.00011418532027383</v>
+        <v>8.152823015213899E-05</v>
       </c>
       <c r="T23">
-        <v>0.00011418532027383</v>
+        <v>8.152823015213899E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H24">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J24">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N24">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O24">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P24">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q24">
-        <v>0.9377398837644443</v>
+        <v>2.844110267246888</v>
       </c>
       <c r="R24">
-        <v>8.439658953879999</v>
+        <v>25.596992405222</v>
       </c>
       <c r="S24">
-        <v>3.971780599198969E-05</v>
+        <v>0.0001116006965334732</v>
       </c>
       <c r="T24">
-        <v>3.971780599198968E-05</v>
+        <v>0.0001116006965334732</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H25">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J25">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N25">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O25">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P25">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q25">
-        <v>0.5630859754764443</v>
+        <v>0.5004151036795556</v>
       </c>
       <c r="R25">
-        <v>5.067773779287999</v>
+        <v>4.503735933116</v>
       </c>
       <c r="S25">
-        <v>2.384940634177137E-05</v>
+        <v>1.963590328041972E-05</v>
       </c>
       <c r="T25">
-        <v>2.384940634177136E-05</v>
+        <v>1.963590328041972E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4787493333333333</v>
+        <v>0.3689676666666666</v>
       </c>
       <c r="H26">
-        <v>1.436248</v>
+        <v>1.106903</v>
       </c>
       <c r="I26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080511</v>
       </c>
       <c r="J26">
-        <v>0.008461250535040448</v>
+        <v>0.006778975991080512</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N26">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O26">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P26">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q26">
-        <v>1.562433398034666</v>
+        <v>1.539220447205778</v>
       </c>
       <c r="R26">
-        <v>14.061900582312</v>
+        <v>13.852984024852</v>
       </c>
       <c r="S26">
-        <v>6.61765886819573E-05</v>
+        <v>6.039782493841592E-05</v>
       </c>
       <c r="T26">
-        <v>6.617658868195729E-05</v>
+        <v>6.039782493841591E-05</v>
       </c>
     </row>
   </sheetData>
